--- a/Tests_Alshevskaya.xlsx
+++ b/Tests_Alshevskaya.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>Общее Failed</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Альшевская</t>
   </si>
   <si>
     <t>Билд</t>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>Осуществлен переход на страницу ЛК пользователя</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t>Тест выхода с сайта</t>
@@ -1198,9 +1204,6 @@
     </r>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
     <t>Отправка  сообщения другу из не списка через аккаунт</t>
   </si>
   <si>
@@ -1848,8 +1851,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="d.mm.yy"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2400,7 +2404,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -2458,7 +2462,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2474,9 +2484,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2538,6 +2545,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -2643,9 +2653,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4050,7 +4057,7 @@
       <c r="K2" s="15"/>
       <c r="L2" s="16">
         <f>COUNTIF(L$8:L$44,"passed")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="16">
@@ -4191,15 +4198,17 @@
         <v>2</v>
       </c>
       <c r="K3" s="15"/>
-      <c r="L3" s="19"/>
+      <c r="L3" t="s" s="19">
+        <v>3</v>
+      </c>
       <c r="M3" s="17"/>
-      <c r="N3" s="19"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="19"/>
+      <c r="P3" s="20"/>
       <c r="Q3" s="17"/>
-      <c r="R3" s="19"/>
+      <c r="R3" s="20"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="19"/>
+      <c r="T3" s="20"/>
       <c r="U3" s="18"/>
       <c r="V3" s="9"/>
       <c r="W3" s="10"/>
@@ -4316,19 +4325,21 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" t="s" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="21">
+        <v>44418</v>
+      </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="9"/>
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
@@ -4435,36 +4446,36 @@
     </row>
     <row r="5" ht="13.8" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" t="s" s="23">
-        <v>4</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" t="s" s="25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" t="s" s="25">
         <v>5</v>
       </c>
+      <c r="K5" s="26"/>
+      <c r="L5" t="s" s="19">
+        <v>6</v>
+      </c>
       <c r="M5" s="17"/>
-      <c r="N5" t="s" s="25">
-        <v>5</v>
+      <c r="N5" t="s" s="19">
+        <v>6</v>
       </c>
       <c r="O5" s="17"/>
-      <c r="P5" t="s" s="25">
-        <v>5</v>
+      <c r="P5" t="s" s="19">
+        <v>6</v>
       </c>
       <c r="Q5" s="17"/>
-      <c r="R5" t="s" s="25">
+      <c r="R5" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" t="s" s="19">
         <v>6</v>
-      </c>
-      <c r="S5" s="17"/>
-      <c r="T5" t="s" s="25">
-        <v>5</v>
       </c>
       <c r="U5" s="18"/>
       <c r="V5" s="9"/>
@@ -4572,44 +4583,44 @@
       <c r="DT5" s="11"/>
     </row>
     <row r="6" ht="27" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" t="s" s="27">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="28">
+      <c r="A6" s="27"/>
+      <c r="B6" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="D6" t="s" s="29">
+      <c r="C6" t="s" s="29">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="27">
+      <c r="D6" t="s" s="30">
         <v>10</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" t="s" s="28">
+      <c r="E6" t="s" s="28">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="28">
+      <c r="F6" s="31"/>
+      <c r="G6" t="s" s="29">
         <v>12</v>
       </c>
-      <c r="I6" t="s" s="28">
+      <c r="H6" t="s" s="29">
         <v>13</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" t="s" s="33">
+      <c r="I6" t="s" s="29">
         <v>14</v>
       </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" t="s" s="34">
+        <v>15</v>
+      </c>
       <c r="M6" s="17"/>
-      <c r="N6" t="s" s="33">
-        <v>14</v>
+      <c r="N6" t="s" s="34">
+        <v>15</v>
       </c>
       <c r="O6" s="17"/>
-      <c r="P6" s="34"/>
+      <c r="P6" s="35"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="34"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="35"/>
       <c r="U6" s="18"/>
       <c r="V6" s="9"/>
       <c r="W6" s="10"/>
@@ -4716,30 +4727,30 @@
       <c r="DT6" s="11"/>
     </row>
     <row r="7" ht="54.6" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" t="s" s="29">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="29">
+      <c r="A7" s="27"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" t="s" s="30">
         <v>16</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="34"/>
+      <c r="F7" t="s" s="30">
+        <v>17</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="35"/>
       <c r="M7" s="17"/>
-      <c r="N7" s="34"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="17"/>
-      <c r="P7" s="34"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="34"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="34"/>
+      <c r="T7" s="35"/>
       <c r="U7" s="18"/>
       <c r="V7" s="9"/>
       <c r="W7" s="10"/>
@@ -4846,36 +4857,38 @@
       <c r="DT7" s="11"/>
     </row>
     <row r="8" ht="46.2" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="39">
+      <c r="A8" s="27"/>
+      <c r="B8" s="40">
         <v>1</v>
       </c>
-      <c r="C8" t="s" s="40">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="41">
+      <c r="C8" t="s" s="41">
         <v>18</v>
       </c>
-      <c r="E8" t="s" s="41">
+      <c r="D8" t="s" s="42">
         <v>19</v>
       </c>
-      <c r="F8" t="s" s="41">
+      <c r="E8" t="s" s="42">
         <v>20</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
+      <c r="F8" t="s" s="42">
+        <v>21</v>
+      </c>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+      <c r="L8" t="s" s="47">
+        <v>22</v>
+      </c>
       <c r="M8" s="17"/>
-      <c r="N8" s="46"/>
+      <c r="N8" s="48"/>
       <c r="O8" s="17"/>
-      <c r="P8" s="46"/>
+      <c r="P8" s="48"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="46"/>
+      <c r="R8" s="48"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="46"/>
+      <c r="T8" s="48"/>
       <c r="U8" s="18"/>
       <c r="V8" s="9"/>
       <c r="W8" s="10"/>
@@ -4982,34 +4995,36 @@
       <c r="DT8" s="11"/>
     </row>
     <row r="9" ht="31.8" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="39">
+      <c r="A9" s="27"/>
+      <c r="B9" s="40">
         <v>2</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" t="s" s="25">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s" s="25">
+      <c r="C9" s="49"/>
+      <c r="D9" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s" s="19">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46"/>
+      <c r="L9" t="s" s="47">
         <v>22</v>
       </c>
-      <c r="F9" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
       <c r="M9" s="17"/>
-      <c r="N9" s="46"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="46"/>
+      <c r="P9" s="48"/>
       <c r="Q9" s="17"/>
-      <c r="R9" s="46"/>
+      <c r="R9" s="48"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="46"/>
+      <c r="T9" s="48"/>
       <c r="U9" s="18"/>
       <c r="V9" s="9"/>
       <c r="W9" s="10"/>
@@ -5116,436 +5131,442 @@
       <c r="DT9" s="11"/>
     </row>
     <row r="10" ht="47.4" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="39">
+      <c r="A10" s="27"/>
+      <c r="B10" s="40">
         <v>3</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" t="s" s="25">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="25">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46"/>
+      <c r="L10" t="s" s="47">
+        <v>22</v>
+      </c>
+      <c r="M10" s="52"/>
+      <c r="N10" s="48"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="46"/>
+      <c r="P10" s="48"/>
       <c r="Q10" s="17"/>
-      <c r="R10" s="46"/>
+      <c r="R10" s="48"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="46"/>
+      <c r="T10" s="48"/>
       <c r="U10" s="18"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="53"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="55"/>
-      <c r="AY10" s="54"/>
-      <c r="AZ10" s="55"/>
-      <c r="BA10" s="54"/>
-      <c r="BB10" s="55"/>
-      <c r="BC10" s="54"/>
-      <c r="BD10" s="55"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="54"/>
-      <c r="BH10" s="55"/>
-      <c r="BI10" s="54"/>
-      <c r="BJ10" s="55"/>
-      <c r="BK10" s="54"/>
-      <c r="BL10" s="55"/>
-      <c r="BM10" s="54"/>
-      <c r="BN10" s="55"/>
-      <c r="BO10" s="54"/>
-      <c r="BP10" s="55"/>
-      <c r="BQ10" s="54"/>
-      <c r="BR10" s="55"/>
-      <c r="BS10" s="54"/>
-      <c r="BT10" s="55"/>
-      <c r="BU10" s="54"/>
-      <c r="BV10" s="55"/>
-      <c r="BW10" s="54"/>
-      <c r="BX10" s="55"/>
-      <c r="BY10" s="54"/>
-      <c r="BZ10" s="55"/>
-      <c r="CA10" s="54"/>
-      <c r="CB10" s="55"/>
-      <c r="CC10" s="54"/>
-      <c r="CD10" s="55"/>
-      <c r="CE10" s="54"/>
-      <c r="CF10" s="55"/>
-      <c r="CG10" s="54"/>
-      <c r="CH10" s="55"/>
-      <c r="CI10" s="54"/>
-      <c r="CJ10" s="55"/>
-      <c r="CK10" s="54"/>
-      <c r="CL10" s="55"/>
-      <c r="CM10" s="54"/>
-      <c r="CN10" s="55"/>
-      <c r="CO10" s="54"/>
-      <c r="CP10" s="55"/>
-      <c r="CQ10" s="54"/>
-      <c r="CR10" s="55"/>
-      <c r="CS10" s="54"/>
-      <c r="CT10" s="55"/>
-      <c r="CU10" s="54"/>
-      <c r="CV10" s="55"/>
-      <c r="CW10" s="54"/>
-      <c r="CX10" s="55"/>
-      <c r="CY10" s="55"/>
-      <c r="CZ10" s="55"/>
-      <c r="DA10" s="55"/>
-      <c r="DB10" s="55"/>
-      <c r="DC10" s="55"/>
-      <c r="DD10" s="55"/>
-      <c r="DE10" s="55"/>
-      <c r="DF10" s="55"/>
-      <c r="DG10" s="55"/>
-      <c r="DH10" s="55"/>
-      <c r="DI10" s="55"/>
-      <c r="DJ10" s="55"/>
-      <c r="DK10" s="55"/>
-      <c r="DL10" s="55"/>
-      <c r="DM10" s="55"/>
-      <c r="DN10" s="55"/>
-      <c r="DO10" s="55"/>
-      <c r="DP10" s="55"/>
-      <c r="DQ10" s="55"/>
-      <c r="DR10" s="55"/>
-      <c r="DS10" s="55"/>
-      <c r="DT10" s="55"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="56"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="56"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="56"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="56"/>
+      <c r="BF10" s="57"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="57"/>
+      <c r="BK10" s="56"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="56"/>
+      <c r="BN10" s="57"/>
+      <c r="BO10" s="56"/>
+      <c r="BP10" s="57"/>
+      <c r="BQ10" s="56"/>
+      <c r="BR10" s="57"/>
+      <c r="BS10" s="56"/>
+      <c r="BT10" s="57"/>
+      <c r="BU10" s="56"/>
+      <c r="BV10" s="57"/>
+      <c r="BW10" s="56"/>
+      <c r="BX10" s="57"/>
+      <c r="BY10" s="56"/>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="56"/>
+      <c r="CB10" s="57"/>
+      <c r="CC10" s="56"/>
+      <c r="CD10" s="57"/>
+      <c r="CE10" s="56"/>
+      <c r="CF10" s="57"/>
+      <c r="CG10" s="56"/>
+      <c r="CH10" s="57"/>
+      <c r="CI10" s="56"/>
+      <c r="CJ10" s="57"/>
+      <c r="CK10" s="56"/>
+      <c r="CL10" s="57"/>
+      <c r="CM10" s="56"/>
+      <c r="CN10" s="57"/>
+      <c r="CO10" s="56"/>
+      <c r="CP10" s="57"/>
+      <c r="CQ10" s="56"/>
+      <c r="CR10" s="57"/>
+      <c r="CS10" s="56"/>
+      <c r="CT10" s="57"/>
+      <c r="CU10" s="56"/>
+      <c r="CV10" s="57"/>
+      <c r="CW10" s="56"/>
+      <c r="CX10" s="57"/>
+      <c r="CY10" s="57"/>
+      <c r="CZ10" s="57"/>
+      <c r="DA10" s="57"/>
+      <c r="DB10" s="57"/>
+      <c r="DC10" s="57"/>
+      <c r="DD10" s="57"/>
+      <c r="DE10" s="57"/>
+      <c r="DF10" s="57"/>
+      <c r="DG10" s="57"/>
+      <c r="DH10" s="57"/>
+      <c r="DI10" s="57"/>
+      <c r="DJ10" s="57"/>
+      <c r="DK10" s="57"/>
+      <c r="DL10" s="57"/>
+      <c r="DM10" s="57"/>
+      <c r="DN10" s="57"/>
+      <c r="DO10" s="57"/>
+      <c r="DP10" s="57"/>
+      <c r="DQ10" s="57"/>
+      <c r="DR10" s="57"/>
+      <c r="DS10" s="57"/>
+      <c r="DT10" s="57"/>
     </row>
     <row r="11" ht="45.6" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="39">
+      <c r="A11" s="27"/>
+      <c r="B11" s="40">
         <v>4</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" t="s" s="25">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="61"/>
-      <c r="AB11" s="60"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="60"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="60"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="60"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="60"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="60"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="60"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="60"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="60"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="60"/>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="60"/>
-      <c r="BO11" s="61"/>
-      <c r="BP11" s="60"/>
-      <c r="BQ11" s="61"/>
-      <c r="BR11" s="60"/>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="60"/>
-      <c r="BU11" s="61"/>
-      <c r="BV11" s="60"/>
-      <c r="BW11" s="61"/>
-      <c r="BX11" s="60"/>
-      <c r="BY11" s="61"/>
-      <c r="BZ11" s="62"/>
-      <c r="CA11" s="63"/>
-      <c r="CB11" s="60"/>
-      <c r="CC11" s="61"/>
-      <c r="CD11" s="60"/>
-      <c r="CE11" s="61"/>
-      <c r="CF11" s="60"/>
-      <c r="CG11" s="61"/>
-      <c r="CH11" s="62"/>
-      <c r="CI11" s="63"/>
-      <c r="CJ11" s="60"/>
-      <c r="CK11" s="61"/>
-      <c r="CL11" s="60"/>
-      <c r="CM11" s="61"/>
-      <c r="CN11" s="60"/>
-      <c r="CO11" s="61"/>
-      <c r="CP11" s="60"/>
-      <c r="CQ11" s="61"/>
-      <c r="CR11" s="60"/>
-      <c r="CS11" s="61"/>
-      <c r="CT11" s="60"/>
-      <c r="CU11" s="61"/>
-      <c r="CV11" s="60"/>
-      <c r="CW11" s="61"/>
-      <c r="CX11" s="60"/>
-      <c r="CY11" s="59"/>
-      <c r="CZ11" s="60"/>
-      <c r="DA11" s="59"/>
-      <c r="DB11" s="60"/>
-      <c r="DC11" s="59"/>
-      <c r="DD11" s="60"/>
-      <c r="DE11" s="59"/>
-      <c r="DF11" s="60"/>
-      <c r="DG11" s="59"/>
-      <c r="DH11" s="60"/>
-      <c r="DI11" s="59"/>
-      <c r="DJ11" s="60"/>
-      <c r="DK11" s="60"/>
-      <c r="DL11" s="60"/>
-      <c r="DM11" s="60"/>
-      <c r="DN11" s="64"/>
-      <c r="DO11" s="60"/>
-      <c r="DP11" s="65"/>
-      <c r="DQ11" s="65"/>
-      <c r="DR11" s="65"/>
-      <c r="DS11" s="65"/>
-      <c r="DT11" s="65"/>
+      <c r="C11" s="51"/>
+      <c r="D11" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="62"/>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="62"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="62"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="62"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="62"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="62"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="62"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="62"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="62"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="62"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="62"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="62"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="62"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="62"/>
+      <c r="BK11" s="63"/>
+      <c r="BL11" s="62"/>
+      <c r="BM11" s="63"/>
+      <c r="BN11" s="62"/>
+      <c r="BO11" s="63"/>
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="63"/>
+      <c r="BR11" s="62"/>
+      <c r="BS11" s="63"/>
+      <c r="BT11" s="62"/>
+      <c r="BU11" s="63"/>
+      <c r="BV11" s="62"/>
+      <c r="BW11" s="63"/>
+      <c r="BX11" s="62"/>
+      <c r="BY11" s="63"/>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="65"/>
+      <c r="CB11" s="62"/>
+      <c r="CC11" s="63"/>
+      <c r="CD11" s="62"/>
+      <c r="CE11" s="63"/>
+      <c r="CF11" s="62"/>
+      <c r="CG11" s="63"/>
+      <c r="CH11" s="64"/>
+      <c r="CI11" s="65"/>
+      <c r="CJ11" s="62"/>
+      <c r="CK11" s="63"/>
+      <c r="CL11" s="62"/>
+      <c r="CM11" s="63"/>
+      <c r="CN11" s="62"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="62"/>
+      <c r="CQ11" s="63"/>
+      <c r="CR11" s="62"/>
+      <c r="CS11" s="63"/>
+      <c r="CT11" s="62"/>
+      <c r="CU11" s="63"/>
+      <c r="CV11" s="62"/>
+      <c r="CW11" s="63"/>
+      <c r="CX11" s="62"/>
+      <c r="CY11" s="61"/>
+      <c r="CZ11" s="62"/>
+      <c r="DA11" s="61"/>
+      <c r="DB11" s="62"/>
+      <c r="DC11" s="61"/>
+      <c r="DD11" s="62"/>
+      <c r="DE11" s="61"/>
+      <c r="DF11" s="62"/>
+      <c r="DG11" s="61"/>
+      <c r="DH11" s="62"/>
+      <c r="DI11" s="61"/>
+      <c r="DJ11" s="62"/>
+      <c r="DK11" s="62"/>
+      <c r="DL11" s="62"/>
+      <c r="DM11" s="62"/>
+      <c r="DN11" s="66"/>
+      <c r="DO11" s="62"/>
+      <c r="DP11" s="67"/>
+      <c r="DQ11" s="67"/>
+      <c r="DR11" s="67"/>
+      <c r="DS11" s="67"/>
+      <c r="DT11" s="67"/>
     </row>
     <row r="12" ht="33" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="39">
+      <c r="A12" s="27"/>
+      <c r="B12" s="40">
         <v>5</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" t="s" s="25">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s" s="25">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="46"/>
+      <c r="C12" s="51"/>
+      <c r="D12" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" t="s" s="47">
+        <v>22</v>
+      </c>
+      <c r="M12" s="68"/>
+      <c r="N12" s="48"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="46"/>
+      <c r="P12" s="48"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="46"/>
+      <c r="R12" s="48"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="46"/>
+      <c r="T12" s="48"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="70"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="70"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="70"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="70"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="70"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="70"/>
-      <c r="AV12" s="71"/>
-      <c r="AW12" s="70"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="70"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="70"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="70"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="70"/>
-      <c r="BH12" s="71"/>
-      <c r="BI12" s="70"/>
-      <c r="BJ12" s="71"/>
-      <c r="BK12" s="70"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="70"/>
-      <c r="BN12" s="71"/>
-      <c r="BO12" s="70"/>
-      <c r="BP12" s="71"/>
-      <c r="BQ12" s="70"/>
-      <c r="BR12" s="71"/>
-      <c r="BS12" s="70"/>
-      <c r="BT12" s="71"/>
-      <c r="BU12" s="70"/>
-      <c r="BV12" s="71"/>
-      <c r="BW12" s="70"/>
-      <c r="BX12" s="71"/>
-      <c r="BY12" s="70"/>
-      <c r="BZ12" s="71"/>
-      <c r="CA12" s="70"/>
-      <c r="CB12" s="71"/>
-      <c r="CC12" s="70"/>
-      <c r="CD12" s="71"/>
-      <c r="CE12" s="70"/>
-      <c r="CF12" s="71"/>
-      <c r="CG12" s="70"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="70"/>
-      <c r="CJ12" s="71"/>
-      <c r="CK12" s="70"/>
-      <c r="CL12" s="71"/>
-      <c r="CM12" s="70"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="70"/>
-      <c r="CP12" s="71"/>
-      <c r="CQ12" s="70"/>
-      <c r="CR12" s="71"/>
-      <c r="CS12" s="70"/>
-      <c r="CT12" s="71"/>
-      <c r="CU12" s="70"/>
-      <c r="CV12" s="71"/>
-      <c r="CW12" s="70"/>
-      <c r="CX12" s="71"/>
-      <c r="CY12" s="71"/>
-      <c r="CZ12" s="71"/>
-      <c r="DA12" s="71"/>
-      <c r="DB12" s="71"/>
-      <c r="DC12" s="71"/>
-      <c r="DD12" s="71"/>
-      <c r="DE12" s="71"/>
-      <c r="DF12" s="71"/>
-      <c r="DG12" s="71"/>
-      <c r="DH12" s="71"/>
-      <c r="DI12" s="71"/>
-      <c r="DJ12" s="71"/>
-      <c r="DK12" s="71"/>
-      <c r="DL12" s="71"/>
-      <c r="DM12" s="71"/>
-      <c r="DN12" s="71"/>
-      <c r="DO12" s="71"/>
-      <c r="DP12" s="71"/>
-      <c r="DQ12" s="71"/>
-      <c r="DR12" s="71"/>
-      <c r="DS12" s="71"/>
-      <c r="DT12" s="71"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="71"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="73"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="73"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="73"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="73"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="73"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="73"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="73"/>
+      <c r="BI12" s="72"/>
+      <c r="BJ12" s="73"/>
+      <c r="BK12" s="72"/>
+      <c r="BL12" s="73"/>
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="73"/>
+      <c r="BO12" s="72"/>
+      <c r="BP12" s="73"/>
+      <c r="BQ12" s="72"/>
+      <c r="BR12" s="73"/>
+      <c r="BS12" s="72"/>
+      <c r="BT12" s="73"/>
+      <c r="BU12" s="72"/>
+      <c r="BV12" s="73"/>
+      <c r="BW12" s="72"/>
+      <c r="BX12" s="73"/>
+      <c r="BY12" s="72"/>
+      <c r="BZ12" s="73"/>
+      <c r="CA12" s="72"/>
+      <c r="CB12" s="73"/>
+      <c r="CC12" s="72"/>
+      <c r="CD12" s="73"/>
+      <c r="CE12" s="72"/>
+      <c r="CF12" s="73"/>
+      <c r="CG12" s="72"/>
+      <c r="CH12" s="73"/>
+      <c r="CI12" s="72"/>
+      <c r="CJ12" s="73"/>
+      <c r="CK12" s="72"/>
+      <c r="CL12" s="73"/>
+      <c r="CM12" s="72"/>
+      <c r="CN12" s="73"/>
+      <c r="CO12" s="72"/>
+      <c r="CP12" s="73"/>
+      <c r="CQ12" s="72"/>
+      <c r="CR12" s="73"/>
+      <c r="CS12" s="72"/>
+      <c r="CT12" s="73"/>
+      <c r="CU12" s="72"/>
+      <c r="CV12" s="73"/>
+      <c r="CW12" s="72"/>
+      <c r="CX12" s="73"/>
+      <c r="CY12" s="73"/>
+      <c r="CZ12" s="73"/>
+      <c r="DA12" s="73"/>
+      <c r="DB12" s="73"/>
+      <c r="DC12" s="73"/>
+      <c r="DD12" s="73"/>
+      <c r="DE12" s="73"/>
+      <c r="DF12" s="73"/>
+      <c r="DG12" s="73"/>
+      <c r="DH12" s="73"/>
+      <c r="DI12" s="73"/>
+      <c r="DJ12" s="73"/>
+      <c r="DK12" s="73"/>
+      <c r="DL12" s="73"/>
+      <c r="DM12" s="73"/>
+      <c r="DN12" s="73"/>
+      <c r="DO12" s="73"/>
+      <c r="DP12" s="73"/>
+      <c r="DQ12" s="73"/>
+      <c r="DR12" s="73"/>
+      <c r="DS12" s="73"/>
+      <c r="DT12" s="73"/>
     </row>
     <row r="13" ht="51" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="39">
+      <c r="A13" s="27"/>
+      <c r="B13" s="40">
         <v>6</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" t="s" s="25">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s" s="25">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G13" s="56"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="46"/>
+      <c r="C13" s="51"/>
+      <c r="D13" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" t="s" s="47">
+        <v>22</v>
+      </c>
       <c r="M13" s="17"/>
-      <c r="N13" s="46"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="46"/>
+      <c r="P13" s="48"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="46"/>
+      <c r="R13" s="48"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="46"/>
+      <c r="T13" s="48"/>
       <c r="U13" s="18"/>
       <c r="V13" s="9"/>
       <c r="W13" s="10"/>
@@ -5652,34 +5673,36 @@
       <c r="DT13" s="11"/>
     </row>
     <row r="14" ht="50.4" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="39">
+      <c r="A14" s="27"/>
+      <c r="B14" s="40">
         <v>7</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" t="s" s="25">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s" s="25">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s" s="25">
-        <v>20</v>
-      </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="46"/>
+      <c r="C14" s="51"/>
+      <c r="D14" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
+      <c r="L14" t="s" s="47">
+        <v>22</v>
+      </c>
       <c r="M14" s="17"/>
-      <c r="N14" s="46"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="17"/>
-      <c r="P14" s="46"/>
+      <c r="P14" s="48"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="46"/>
+      <c r="R14" s="48"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="46"/>
+      <c r="T14" s="48"/>
       <c r="U14" s="18"/>
       <c r="V14" s="9"/>
       <c r="W14" s="10"/>
@@ -5786,34 +5809,34 @@
       <c r="DT14" s="11"/>
     </row>
     <row r="15" ht="25.8" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="39">
+      <c r="A15" s="27"/>
+      <c r="B15" s="40">
         <v>8</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" t="s" s="25">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s" s="25">
-        <v>35</v>
-      </c>
-      <c r="F15" t="s" s="25">
+      <c r="C15" s="51"/>
+      <c r="D15" t="s" s="19">
         <v>36</v>
       </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
+      <c r="E15" t="s" s="19">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s" s="19">
+        <v>38</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="48"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="46"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="17"/>
-      <c r="P15" s="46"/>
+      <c r="P15" s="48"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="46"/>
+      <c r="R15" s="48"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="46"/>
+      <c r="T15" s="48"/>
       <c r="U15" s="18"/>
       <c r="V15" s="9"/>
       <c r="W15" s="10"/>
@@ -5920,34 +5943,34 @@
       <c r="DT15" s="11"/>
     </row>
     <row r="16" ht="36.6" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="39">
+      <c r="A16" s="27"/>
+      <c r="B16" s="40">
         <v>9</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" t="s" s="25">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s" s="25">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s" s="25">
+      <c r="C16" s="51"/>
+      <c r="D16" t="s" s="19">
         <v>39</v>
       </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="E16" t="s" s="19">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s" s="19">
+        <v>41</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="48"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="46"/>
+      <c r="N16" s="48"/>
       <c r="O16" s="17"/>
-      <c r="P16" s="46"/>
+      <c r="P16" s="48"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="46"/>
+      <c r="R16" s="48"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="46"/>
+      <c r="T16" s="48"/>
       <c r="U16" s="18"/>
       <c r="V16" s="9"/>
       <c r="W16" s="10"/>
@@ -6054,34 +6077,34 @@
       <c r="DT16" s="11"/>
     </row>
     <row r="17" ht="35.4" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="39">
+      <c r="A17" s="27"/>
+      <c r="B17" s="40">
         <v>10</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" t="s" s="25">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s" s="25">
+      <c r="C17" s="51"/>
+      <c r="D17" t="s" s="19">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s" s="19">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s" s="19">
         <v>41</v>
       </c>
-      <c r="F17" t="s" s="25">
-        <v>39</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="48"/>
       <c r="M17" s="17"/>
-      <c r="N17" s="46"/>
+      <c r="N17" s="48"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="46"/>
+      <c r="P17" s="48"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="46"/>
+      <c r="R17" s="48"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="46"/>
+      <c r="T17" s="48"/>
       <c r="U17" s="18"/>
       <c r="V17" s="9"/>
       <c r="W17" s="10"/>
@@ -6188,34 +6211,34 @@
       <c r="DT17" s="11"/>
     </row>
     <row r="18" ht="45" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="39">
+      <c r="A18" s="27"/>
+      <c r="B18" s="40">
         <v>11</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" t="s" s="25">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s" s="25">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s" s="25">
+      <c r="C18" s="51"/>
+      <c r="D18" t="s" s="19">
         <v>44</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="E18" t="s" s="19">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s" s="19">
+        <v>46</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="17"/>
-      <c r="N18" s="46"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="46"/>
+      <c r="P18" s="48"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="46"/>
+      <c r="R18" s="48"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="46"/>
+      <c r="T18" s="48"/>
       <c r="U18" s="18"/>
       <c r="V18" s="9"/>
       <c r="W18" s="10"/>
@@ -6322,34 +6345,34 @@
       <c r="DT18" s="11"/>
     </row>
     <row r="19" ht="37.2" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="39">
+      <c r="A19" s="27"/>
+      <c r="B19" s="40">
         <v>12</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" t="s" s="25">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s" s="25">
+      <c r="C19" s="51"/>
+      <c r="D19" t="s" s="19">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s" s="19">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s" s="19">
         <v>46</v>
       </c>
-      <c r="F19" t="s" s="25">
-        <v>44</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="17"/>
-      <c r="N19" s="46"/>
+      <c r="N19" s="48"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="46"/>
+      <c r="P19" s="48"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="46"/>
+      <c r="R19" s="48"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="46"/>
+      <c r="T19" s="48"/>
       <c r="U19" s="18"/>
       <c r="V19" s="9"/>
       <c r="W19" s="10"/>
@@ -6456,34 +6479,34 @@
       <c r="DT19" s="11"/>
     </row>
     <row r="20" ht="49.8" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="39">
+      <c r="A20" s="27"/>
+      <c r="B20" s="40">
         <v>13</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" t="s" s="25">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s" s="25">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="C20" s="51"/>
+      <c r="D20" t="s" s="19">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s" s="19">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="46"/>
+      <c r="N20" s="48"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="46"/>
+      <c r="P20" s="48"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="46"/>
+      <c r="R20" s="48"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="46"/>
+      <c r="T20" s="48"/>
       <c r="U20" s="18"/>
       <c r="V20" s="9"/>
       <c r="W20" s="10"/>
@@ -6590,34 +6613,34 @@
       <c r="DT20" s="11"/>
     </row>
     <row r="21" ht="42.6" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="39">
+      <c r="A21" s="27"/>
+      <c r="B21" s="40">
         <v>14</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" t="s" s="25">
-        <v>49</v>
-      </c>
-      <c r="E21" t="s" s="25">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="C21" s="51"/>
+      <c r="D21" t="s" s="19">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s" s="19">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="17"/>
-      <c r="N21" s="46"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="46"/>
+      <c r="P21" s="48"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="46"/>
+      <c r="R21" s="48"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="46"/>
+      <c r="T21" s="48"/>
       <c r="U21" s="18"/>
       <c r="V21" s="9"/>
       <c r="W21" s="10"/>
@@ -6724,34 +6747,34 @@
       <c r="DT21" s="11"/>
     </row>
     <row r="22" ht="22.8" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="39">
+      <c r="A22" s="27"/>
+      <c r="B22" s="40">
         <v>15</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" t="s" s="25">
-        <v>51</v>
-      </c>
-      <c r="E22" t="s" s="25">
-        <v>52</v>
-      </c>
-      <c r="F22" t="s" s="73">
-        <v>20</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="C22" s="74"/>
+      <c r="D22" t="s" s="19">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s" s="19">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s" s="75">
+        <v>21</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="17"/>
-      <c r="N22" s="46"/>
+      <c r="N22" s="48"/>
       <c r="O22" s="17"/>
-      <c r="P22" s="46"/>
+      <c r="P22" s="48"/>
       <c r="Q22" s="17"/>
-      <c r="R22" s="46"/>
+      <c r="R22" s="48"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="46"/>
+      <c r="T22" s="48"/>
       <c r="U22" s="18"/>
       <c r="V22" s="9"/>
       <c r="W22" s="10"/>
@@ -6858,36 +6881,36 @@
       <c r="DT22" s="11"/>
     </row>
     <row r="23" ht="101.4" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="39">
+      <c r="A23" s="27"/>
+      <c r="B23" s="40">
         <v>16</v>
       </c>
-      <c r="C23" t="s" s="74">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s" s="41">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s" s="41">
+      <c r="C23" t="s" s="76">
         <v>55</v>
       </c>
-      <c r="F23" t="s" s="41">
+      <c r="D23" t="s" s="42">
         <v>56</v>
       </c>
-      <c r="G23" s="75"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="E23" t="s" s="42">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s" s="42">
+        <v>58</v>
+      </c>
+      <c r="G23" s="77"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="46"/>
+      <c r="N23" s="48"/>
       <c r="O23" s="17"/>
-      <c r="P23" s="46"/>
+      <c r="P23" s="48"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="46"/>
+      <c r="R23" s="48"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="46"/>
+      <c r="T23" s="48"/>
       <c r="U23" s="18"/>
       <c r="V23" s="9"/>
       <c r="W23" s="10"/>
@@ -6994,34 +7017,34 @@
       <c r="DT23" s="11"/>
     </row>
     <row r="24" ht="113.4" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="39">
+      <c r="A24" s="27"/>
+      <c r="B24" s="40">
         <v>17</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" t="s" s="25">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s" s="76">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s" s="25">
+      <c r="C24" s="20"/>
+      <c r="D24" t="s" s="19">
         <v>59</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
+      <c r="E24" t="s" s="78">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s" s="19">
+        <v>61</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="17"/>
-      <c r="N24" s="46"/>
+      <c r="N24" s="48"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="46"/>
+      <c r="P24" s="48"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="46"/>
+      <c r="R24" s="48"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="46"/>
+      <c r="T24" s="48"/>
       <c r="U24" s="18"/>
       <c r="V24" s="9"/>
       <c r="W24" s="10"/>
@@ -7128,34 +7151,34 @@
       <c r="DT24" s="11"/>
     </row>
     <row r="25" ht="129.6" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="39">
+      <c r="A25" s="27"/>
+      <c r="B25" s="40">
         <v>19</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" t="s" s="25">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s" s="25">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s" s="25">
+      <c r="C25" s="20"/>
+      <c r="D25" t="s" s="19">
         <v>62</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
+      <c r="E25" t="s" s="19">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s" s="19">
+        <v>64</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="17"/>
-      <c r="N25" s="46"/>
+      <c r="N25" s="48"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="46"/>
+      <c r="P25" s="48"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="46"/>
+      <c r="R25" s="48"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="46"/>
+      <c r="T25" s="48"/>
       <c r="U25" s="18"/>
       <c r="V25" s="9"/>
       <c r="W25" s="10"/>
@@ -7262,32 +7285,32 @@
       <c r="DT25" s="11"/>
     </row>
     <row r="26" ht="129.6" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" t="s" s="25">
-        <v>63</v>
-      </c>
-      <c r="E26" t="s" s="25">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s" s="25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" t="s" s="19">
         <v>65</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
+      <c r="E26" t="s" s="19">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s" s="19">
+        <v>67</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="17"/>
-      <c r="N26" s="46"/>
+      <c r="N26" s="48"/>
       <c r="O26" s="17"/>
-      <c r="P26" s="46"/>
+      <c r="P26" s="48"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="46"/>
+      <c r="R26" s="48"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="46"/>
+      <c r="T26" s="48"/>
       <c r="U26" s="18"/>
       <c r="V26" s="9"/>
       <c r="W26" s="10"/>
@@ -7394,34 +7417,34 @@
       <c r="DT26" s="11"/>
     </row>
     <row r="27" ht="144" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="39">
+      <c r="A27" s="27"/>
+      <c r="B27" s="40">
         <v>20</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" t="s" s="25">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s" s="25">
-        <v>67</v>
-      </c>
-      <c r="F27" t="s" s="25">
+      <c r="C27" s="20"/>
+      <c r="D27" t="s" s="19">
         <v>68</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
+      <c r="E27" t="s" s="19">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s" s="19">
+        <v>70</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="17"/>
-      <c r="N27" s="46"/>
+      <c r="N27" s="48"/>
       <c r="O27" s="17"/>
-      <c r="P27" s="46"/>
+      <c r="P27" s="48"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="46"/>
+      <c r="R27" s="48"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="46"/>
+      <c r="T27" s="48"/>
       <c r="U27" s="18"/>
       <c r="V27" s="9"/>
       <c r="W27" s="10"/>
@@ -7528,32 +7551,32 @@
       <c r="DT27" s="11"/>
     </row>
     <row r="28" ht="129.6" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" t="s" s="25">
-        <v>69</v>
-      </c>
-      <c r="E28" t="s" s="25">
-        <v>70</v>
-      </c>
-      <c r="F28" t="s" s="25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" t="s" s="19">
         <v>71</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="E28" t="s" s="19">
+        <v>72</v>
+      </c>
+      <c r="F28" t="s" s="19">
+        <v>73</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="17"/>
-      <c r="N28" s="46"/>
+      <c r="N28" s="48"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="46"/>
+      <c r="P28" s="48"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="46"/>
+      <c r="R28" s="48"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="46"/>
+      <c r="T28" s="48"/>
       <c r="U28" s="18"/>
       <c r="V28" s="9"/>
       <c r="W28" s="10"/>
@@ -7660,34 +7683,34 @@
       <c r="DT28" s="11"/>
     </row>
     <row r="29" ht="158.4" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="39">
+      <c r="A29" s="27"/>
+      <c r="B29" s="40">
         <v>21</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" t="s" s="25">
-        <v>72</v>
-      </c>
-      <c r="E29" t="s" s="25">
-        <v>73</v>
-      </c>
-      <c r="F29" t="s" s="25">
+      <c r="C29" s="20"/>
+      <c r="D29" t="s" s="19">
         <v>74</v>
       </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
+      <c r="E29" t="s" s="19">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="19">
+        <v>76</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="48"/>
       <c r="M29" s="17"/>
-      <c r="N29" s="46"/>
+      <c r="N29" s="48"/>
       <c r="O29" s="17"/>
-      <c r="P29" s="46"/>
+      <c r="P29" s="48"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="46"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="46"/>
+      <c r="T29" s="48"/>
       <c r="U29" s="18"/>
       <c r="V29" s="9"/>
       <c r="W29" s="10"/>
@@ -7794,34 +7817,34 @@
       <c r="DT29" s="11"/>
     </row>
     <row r="30" ht="129.6" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="39">
+      <c r="A30" s="27"/>
+      <c r="B30" s="40">
         <v>22</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" t="s" s="25">
-        <v>75</v>
-      </c>
-      <c r="E30" t="s" s="25">
-        <v>76</v>
-      </c>
-      <c r="F30" t="s" s="25">
+      <c r="C30" s="20"/>
+      <c r="D30" t="s" s="19">
         <v>77</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="46"/>
+      <c r="E30" t="s" s="19">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s" s="19">
+        <v>79</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="48"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="46"/>
+      <c r="N30" s="48"/>
       <c r="O30" s="17"/>
-      <c r="P30" s="46"/>
+      <c r="P30" s="48"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="46"/>
+      <c r="R30" s="48"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="46"/>
+      <c r="T30" s="48"/>
       <c r="U30" s="18"/>
       <c r="V30" s="9"/>
       <c r="W30" s="10"/>
@@ -7928,34 +7951,34 @@
       <c r="DT30" s="11"/>
     </row>
     <row r="31" ht="216" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="39">
+      <c r="A31" s="27"/>
+      <c r="B31" s="40">
         <v>23</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" t="s" s="25">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s" s="25">
-        <v>79</v>
-      </c>
-      <c r="F31" t="s" s="77">
+      <c r="C31" s="20"/>
+      <c r="D31" t="s" s="19">
         <v>80</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
+      <c r="E31" t="s" s="19">
+        <v>81</v>
+      </c>
+      <c r="F31" t="s" s="79">
+        <v>82</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="48"/>
       <c r="M31" s="17"/>
-      <c r="N31" s="46"/>
+      <c r="N31" s="48"/>
       <c r="O31" s="17"/>
-      <c r="P31" s="46"/>
+      <c r="P31" s="48"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="46"/>
+      <c r="R31" s="48"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="46"/>
+      <c r="T31" s="48"/>
       <c r="U31" s="18"/>
       <c r="V31" s="9"/>
       <c r="W31" s="10"/>
@@ -8062,36 +8085,36 @@
       <c r="DT31" s="11"/>
     </row>
     <row r="32" ht="187.2" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="39">
+      <c r="A32" s="27"/>
+      <c r="B32" s="40">
         <v>24</v>
       </c>
-      <c r="C32" t="s" s="78">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s" s="25">
-        <v>82</v>
-      </c>
-      <c r="E32" t="s" s="25">
+      <c r="C32" t="s" s="80">
         <v>83</v>
       </c>
-      <c r="F32" t="s" s="25">
+      <c r="D32" t="s" s="19">
         <v>84</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="46"/>
+      <c r="E32" t="s" s="19">
+        <v>85</v>
+      </c>
+      <c r="F32" t="s" s="19">
+        <v>86</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="48"/>
       <c r="M32" s="17"/>
-      <c r="N32" s="46"/>
+      <c r="N32" s="48"/>
       <c r="O32" s="17"/>
-      <c r="P32" s="46"/>
+      <c r="P32" s="48"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="46"/>
+      <c r="R32" s="48"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="46"/>
+      <c r="T32" s="48"/>
       <c r="U32" s="18"/>
       <c r="V32" s="9"/>
       <c r="W32" s="10"/>
@@ -8198,36 +8221,36 @@
       <c r="DT32" s="11"/>
     </row>
     <row r="33" ht="160.75" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="39">
+      <c r="A33" s="27"/>
+      <c r="B33" s="40">
         <v>25</v>
       </c>
-      <c r="C33" t="s" s="79">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s" s="25">
-        <v>86</v>
-      </c>
-      <c r="E33" t="s" s="25">
+      <c r="C33" t="s" s="81">
         <v>87</v>
       </c>
-      <c r="F33" t="s" s="25">
+      <c r="D33" t="s" s="19">
         <v>88</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="46"/>
+      <c r="E33" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s" s="19">
+        <v>90</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="17"/>
-      <c r="N33" s="46"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="17"/>
-      <c r="P33" s="46"/>
+      <c r="P33" s="48"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="46"/>
+      <c r="R33" s="48"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="46"/>
+      <c r="T33" s="48"/>
       <c r="U33" s="18"/>
       <c r="V33" s="9"/>
       <c r="W33" s="10"/>
@@ -8334,34 +8357,34 @@
       <c r="DT33" s="11"/>
     </row>
     <row r="34" ht="97.25" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="39">
+      <c r="A34" s="27"/>
+      <c r="B34" s="40">
         <v>26</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" t="s" s="25">
-        <v>89</v>
-      </c>
-      <c r="E34" t="s" s="25">
-        <v>90</v>
-      </c>
-      <c r="F34" t="s" s="25">
+      <c r="C34" s="82"/>
+      <c r="D34" t="s" s="19">
         <v>91</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="46"/>
+      <c r="E34" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="F34" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="48"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="46"/>
+      <c r="N34" s="48"/>
       <c r="O34" s="17"/>
-      <c r="P34" s="46"/>
+      <c r="P34" s="48"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="46"/>
+      <c r="R34" s="48"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="46"/>
+      <c r="T34" s="48"/>
       <c r="U34" s="18"/>
       <c r="V34" s="9"/>
       <c r="W34" s="10"/>
@@ -8468,43 +8491,43 @@
       <c r="DT34" s="11"/>
     </row>
     <row r="35" ht="121.4" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="39">
+      <c r="A35" s="27"/>
+      <c r="B35" s="40">
         <v>27</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" t="s" s="25">
-        <v>92</v>
-      </c>
-      <c r="E35" t="s" s="25">
+      <c r="C35" s="82"/>
+      <c r="D35" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="E35" t="s" s="19">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s" s="19">
         <v>93</v>
       </c>
-      <c r="F35" t="s" s="25">
-        <v>91</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" t="s" s="81">
-        <v>94</v>
+      <c r="G35" s="20"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="46"/>
+      <c r="L35" t="s" s="47">
+        <v>22</v>
       </c>
       <c r="M35" s="17"/>
-      <c r="N35" t="s" s="81">
-        <v>94</v>
+      <c r="N35" t="s" s="47">
+        <v>22</v>
       </c>
       <c r="O35" s="17"/>
-      <c r="P35" t="s" s="81">
-        <v>94</v>
+      <c r="P35" t="s" s="47">
+        <v>22</v>
       </c>
       <c r="Q35" s="17"/>
-      <c r="R35" t="s" s="81">
-        <v>94</v>
+      <c r="R35" t="s" s="47">
+        <v>22</v>
       </c>
       <c r="S35" s="17"/>
-      <c r="T35" t="s" s="81">
-        <v>94</v>
+      <c r="T35" t="s" s="47">
+        <v>22</v>
       </c>
       <c r="U35" s="18"/>
       <c r="V35" s="9"/>
@@ -8612,34 +8635,34 @@
       <c r="DT35" s="11"/>
     </row>
     <row r="36" ht="104.55" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="39">
+      <c r="A36" s="27"/>
+      <c r="B36" s="40">
         <v>28</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" t="s" s="25">
-        <v>95</v>
-      </c>
-      <c r="E36" t="s" s="25">
+      <c r="C36" s="82"/>
+      <c r="D36" t="s" s="19">
         <v>96</v>
       </c>
-      <c r="F36" t="s" s="25">
-        <v>91</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="46"/>
+      <c r="E36" t="s" s="19">
+        <v>97</v>
+      </c>
+      <c r="F36" t="s" s="19">
+        <v>93</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="48"/>
       <c r="M36" s="17"/>
-      <c r="N36" s="46"/>
+      <c r="N36" s="48"/>
       <c r="O36" s="17"/>
-      <c r="P36" s="46"/>
+      <c r="P36" s="48"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="46"/>
+      <c r="R36" s="48"/>
       <c r="S36" s="17"/>
-      <c r="T36" s="46"/>
+      <c r="T36" s="48"/>
       <c r="U36" s="18"/>
       <c r="V36" s="9"/>
       <c r="W36" s="10"/>
@@ -8746,34 +8769,34 @@
       <c r="DT36" s="11"/>
     </row>
     <row r="37" ht="118.95" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="39">
+      <c r="A37" s="27"/>
+      <c r="B37" s="40">
         <v>29</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" t="s" s="25">
-        <v>97</v>
-      </c>
-      <c r="E37" t="s" s="25">
+      <c r="C37" s="20"/>
+      <c r="D37" t="s" s="19">
         <v>98</v>
       </c>
-      <c r="F37" t="s" s="25">
+      <c r="E37" t="s" s="19">
         <v>99</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
+      <c r="F37" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="48"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="46"/>
+      <c r="N37" s="48"/>
       <c r="O37" s="17"/>
-      <c r="P37" s="46"/>
+      <c r="P37" s="48"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="46"/>
+      <c r="R37" s="48"/>
       <c r="S37" s="17"/>
-      <c r="T37" s="46"/>
+      <c r="T37" s="48"/>
       <c r="U37" s="18"/>
       <c r="V37" s="9"/>
       <c r="W37" s="10"/>
@@ -8880,34 +8903,34 @@
       <c r="DT37" s="11"/>
     </row>
     <row r="38" ht="158.3" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="39">
+      <c r="A38" s="27"/>
+      <c r="B38" s="40">
         <v>30</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" t="s" s="25">
+      <c r="C38" s="20"/>
+      <c r="D38" t="s" s="19">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s" s="19">
+        <v>102</v>
+      </c>
+      <c r="F38" t="s" s="19">
         <v>100</v>
       </c>
-      <c r="E38" t="s" s="25">
-        <v>101</v>
-      </c>
-      <c r="F38" t="s" s="25">
-        <v>99</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="46"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="48"/>
       <c r="M38" s="17"/>
-      <c r="N38" s="46"/>
+      <c r="N38" s="48"/>
       <c r="O38" s="17"/>
-      <c r="P38" s="46"/>
+      <c r="P38" s="48"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="46"/>
+      <c r="R38" s="48"/>
       <c r="S38" s="17"/>
-      <c r="T38" s="46"/>
+      <c r="T38" s="48"/>
       <c r="U38" s="18"/>
       <c r="V38" s="9"/>
       <c r="W38" s="10"/>
@@ -9014,34 +9037,34 @@
       <c r="DT38" s="11"/>
     </row>
     <row r="39" ht="134.2" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="39">
+      <c r="A39" s="27"/>
+      <c r="B39" s="40">
         <v>31</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" t="s" s="25">
-        <v>102</v>
-      </c>
-      <c r="E39" t="s" s="25">
+      <c r="C39" s="20"/>
+      <c r="D39" t="s" s="19">
         <v>103</v>
       </c>
-      <c r="F39" t="s" s="25">
-        <v>99</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="45"/>
-      <c r="L39" s="46"/>
+      <c r="E39" t="s" s="19">
+        <v>104</v>
+      </c>
+      <c r="F39" t="s" s="19">
+        <v>100</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="48"/>
       <c r="M39" s="17"/>
-      <c r="N39" s="46"/>
+      <c r="N39" s="48"/>
       <c r="O39" s="17"/>
-      <c r="P39" s="46"/>
+      <c r="P39" s="48"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="46"/>
+      <c r="R39" s="48"/>
       <c r="S39" s="17"/>
-      <c r="T39" s="46"/>
+      <c r="T39" s="48"/>
       <c r="U39" s="18"/>
       <c r="V39" s="9"/>
       <c r="W39" s="10"/>
@@ -9148,34 +9171,34 @@
       <c r="DT39" s="11"/>
     </row>
     <row r="40" ht="155.25" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="39">
+      <c r="A40" s="27"/>
+      <c r="B40" s="40">
         <v>32</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" t="s" s="25">
-        <v>104</v>
-      </c>
-      <c r="E40" t="s" s="25">
+      <c r="C40" s="20"/>
+      <c r="D40" t="s" s="19">
         <v>105</v>
       </c>
-      <c r="F40" t="s" s="25">
+      <c r="E40" t="s" s="19">
         <v>106</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="46"/>
+      <c r="F40" t="s" s="19">
+        <v>107</v>
+      </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="48"/>
       <c r="M40" s="17"/>
-      <c r="N40" s="46"/>
+      <c r="N40" s="48"/>
       <c r="O40" s="17"/>
-      <c r="P40" s="46"/>
+      <c r="P40" s="48"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="46"/>
+      <c r="R40" s="48"/>
       <c r="S40" s="17"/>
-      <c r="T40" s="46"/>
+      <c r="T40" s="48"/>
       <c r="U40" s="18"/>
       <c r="V40" s="9"/>
       <c r="W40" s="10"/>
@@ -9282,34 +9305,34 @@
       <c r="DT40" s="11"/>
     </row>
     <row r="41" ht="197.05" customHeight="1">
-      <c r="A41" s="26"/>
-      <c r="B41" s="39">
+      <c r="A41" s="27"/>
+      <c r="B41" s="40">
         <v>33</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" t="s" s="25">
+      <c r="C41" s="20"/>
+      <c r="D41" t="s" s="19">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s" s="19">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s" s="19">
         <v>107</v>
       </c>
-      <c r="E41" t="s" s="25">
-        <v>108</v>
-      </c>
-      <c r="F41" t="s" s="25">
-        <v>106</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="44"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="45"/>
-      <c r="L41" s="46"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+      <c r="L41" s="48"/>
       <c r="M41" s="17"/>
-      <c r="N41" s="46"/>
+      <c r="N41" s="48"/>
       <c r="O41" s="17"/>
-      <c r="P41" s="46"/>
+      <c r="P41" s="48"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="46"/>
+      <c r="R41" s="48"/>
       <c r="S41" s="17"/>
-      <c r="T41" s="46"/>
+      <c r="T41" s="48"/>
       <c r="U41" s="18"/>
       <c r="V41" s="9"/>
       <c r="W41" s="10"/>
@@ -9416,34 +9439,34 @@
       <c r="DT41" s="11"/>
     </row>
     <row r="42" ht="132.2" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="39">
+      <c r="A42" s="27"/>
+      <c r="B42" s="40">
         <v>34</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" t="s" s="25">
-        <v>109</v>
-      </c>
-      <c r="E42" t="s" s="25">
+      <c r="C42" s="20"/>
+      <c r="D42" t="s" s="19">
         <v>110</v>
       </c>
-      <c r="F42" t="s" s="25">
-        <v>106</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="46"/>
+      <c r="E42" t="s" s="19">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s" s="19">
+        <v>107</v>
+      </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="48"/>
       <c r="M42" s="17"/>
-      <c r="N42" s="46"/>
+      <c r="N42" s="48"/>
       <c r="O42" s="17"/>
-      <c r="P42" s="46"/>
+      <c r="P42" s="48"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="46"/>
+      <c r="R42" s="48"/>
       <c r="S42" s="17"/>
-      <c r="T42" s="46"/>
+      <c r="T42" s="48"/>
       <c r="U42" s="18"/>
       <c r="V42" s="9"/>
       <c r="W42" s="10"/>
@@ -9550,28 +9573,28 @@
       <c r="DT42" s="11"/>
     </row>
     <row r="43" ht="157.55" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="39">
+      <c r="A43" s="27"/>
+      <c r="B43" s="40">
         <v>35</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="17"/>
-      <c r="N43" s="46"/>
+      <c r="N43" s="48"/>
       <c r="O43" s="17"/>
-      <c r="P43" s="46"/>
+      <c r="P43" s="48"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="46"/>
+      <c r="R43" s="48"/>
       <c r="S43" s="17"/>
-      <c r="T43" s="46"/>
+      <c r="T43" s="48"/>
       <c r="U43" s="18"/>
       <c r="V43" s="9"/>
       <c r="W43" s="10"/>
@@ -9678,28 +9701,28 @@
       <c r="DT43" s="11"/>
     </row>
     <row r="44" ht="14.4" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="82">
+      <c r="A44" s="27"/>
+      <c r="B44" s="83">
         <v>36</v>
       </c>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="46"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="48"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="46"/>
+      <c r="N44" s="48"/>
       <c r="O44" s="17"/>
-      <c r="P44" s="46"/>
+      <c r="P44" s="48"/>
       <c r="Q44" s="17"/>
-      <c r="R44" s="46"/>
+      <c r="R44" s="48"/>
       <c r="S44" s="17"/>
-      <c r="T44" s="46"/>
+      <c r="T44" s="48"/>
       <c r="U44" s="18"/>
       <c r="V44" s="9"/>
       <c r="W44" s="10"/>
@@ -9806,32 +9829,32 @@
       <c r="DT44" s="11"/>
     </row>
     <row r="45" ht="16" customHeight="1">
-      <c r="A45" s="85"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" t="s" s="87">
-        <v>111</v>
-      </c>
-      <c r="E45" s="88">
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" t="s" s="88">
+        <v>112</v>
+      </c>
+      <c r="E45" s="89">
         <f>COUNT(I8:I44)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="89"/>
-      <c r="U45" s="86"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="87"/>
       <c r="V45" s="9"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
@@ -9937,32 +9960,32 @@
       <c r="DT45" s="11"/>
     </row>
     <row r="46" ht="16" customHeight="1">
-      <c r="A46" s="85"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" t="s" s="87">
-        <v>112</v>
-      </c>
-      <c r="E46" s="88">
+      <c r="A46" s="86"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" t="s" s="88">
+        <v>113</v>
+      </c>
+      <c r="E46" s="89">
         <f>COUNTA(D8:D44)</f>
         <v>35</v>
       </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="86"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
       <c r="V46" s="9"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -10068,32 +10091,32 @@
       <c r="DT46" s="11"/>
     </row>
     <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="85"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" t="s" s="87">
-        <v>113</v>
-      </c>
-      <c r="E47" s="88">
+      <c r="A47" s="86"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" t="s" s="88">
+        <v>114</v>
+      </c>
+      <c r="E47" s="89">
         <f>COUNT(J8:J44)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="86"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
       <c r="V47" s="9"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
@@ -10199,27 +10222,27 @@
       <c r="DT47" s="11"/>
     </row>
     <row r="48" ht="14.4" customHeight="1">
-      <c r="A48" s="70"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="70"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="70"/>
+      <c r="R48" s="70"/>
+      <c r="S48" s="70"/>
+      <c r="T48" s="70"/>
+      <c r="U48" s="70"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
@@ -10451,7 +10474,7 @@
       <c r="DT49" s="11"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="90"/>
+      <c r="A50" s="91"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -10577,7 +10600,7 @@
       <c r="DT50" s="11"/>
     </row>
     <row r="51" ht="14.4" customHeight="1">
-      <c r="A51" s="90"/>
+      <c r="A51" s="91"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -10703,7 +10726,7 @@
       <c r="DT51" s="11"/>
     </row>
     <row r="52" ht="14.4" customHeight="1">
-      <c r="A52" s="90"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -10829,7 +10852,7 @@
       <c r="DT52" s="11"/>
     </row>
     <row r="53" ht="14.4" customHeight="1">
-      <c r="A53" s="90"/>
+      <c r="A53" s="91"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -10955,7 +10978,7 @@
       <c r="DT53" s="11"/>
     </row>
     <row r="54" ht="14.4" customHeight="1">
-      <c r="A54" s="90"/>
+      <c r="A54" s="91"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -11081,7 +11104,7 @@
       <c r="DT54" s="11"/>
     </row>
     <row r="55" ht="14.4" customHeight="1">
-      <c r="A55" s="90"/>
+      <c r="A55" s="91"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -11207,7 +11230,7 @@
       <c r="DT55" s="11"/>
     </row>
     <row r="56" ht="14.4" customHeight="1">
-      <c r="A56" s="90"/>
+      <c r="A56" s="91"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -11333,7 +11356,7 @@
       <c r="DT56" s="11"/>
     </row>
     <row r="57" ht="14.4" customHeight="1">
-      <c r="A57" s="90"/>
+      <c r="A57" s="91"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -11459,7 +11482,7 @@
       <c r="DT57" s="11"/>
     </row>
     <row r="58" ht="14.4" customHeight="1">
-      <c r="A58" s="90"/>
+      <c r="A58" s="91"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -11585,7 +11608,7 @@
       <c r="DT58" s="11"/>
     </row>
     <row r="59" ht="14.4" customHeight="1">
-      <c r="A59" s="90"/>
+      <c r="A59" s="91"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -11711,7 +11734,7 @@
       <c r="DT59" s="11"/>
     </row>
     <row r="60" ht="14.4" customHeight="1">
-      <c r="A60" s="90"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -11837,7 +11860,7 @@
       <c r="DT60" s="11"/>
     </row>
     <row r="61" ht="14.4" customHeight="1">
-      <c r="A61" s="90"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
